--- a/Plans/mesure.xlsx
+++ b/Plans/mesure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emanuel\Documents\Automne2021\Algorithme et optimisation\Projet Algorithme\Chairs_optimization\Plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB883CBD-0099-48C6-8521-EB55256FE575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C1DBAB-994E-442B-B3C9-B44D139DD94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3BC4A18A-9FA5-4B46-BEBD-385B03B9A85E}"/>
   </bookViews>
@@ -118,7 +118,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -153,106 +153,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,7 +467,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -620,31 +520,31 @@
         <v>2480</v>
       </c>
       <c r="D3" s="4">
-        <f>IF(OR(ISBLANK(A3),ISBLANK(B3)),"",ABS(B3*COS(90-A3)))</f>
-        <v>2275.5935653190086</v>
+        <f>IF(OR(ISBLANK(A3),ISBLANK(B3)),"",(ABS(B3*COS(90-A3)))/1000)</f>
+        <v>2.2755935653190087</v>
       </c>
       <c r="E3" s="4">
-        <f>IF(OR(ISBLANK(A3),ISBLANK(B3)),"",ABS(B3*SIN(90-A3)))</f>
-        <v>985.9380941411697</v>
+        <f>IF(OR(ISBLANK(A3),ISBLANK(B3)),"",(ABS(B3*SIN(90-A3)))/1000)</f>
+        <v>0.98593809414116973</v>
       </c>
       <c r="F3">
         <f>IF(OR(ISBLANK(A3),ISBLANK(B3)),"",((D3)^2+(E3)^2)^(1/2))</f>
-        <v>2480</v>
+        <v>2.48</v>
       </c>
       <c r="G3" t="b">
         <f>IF(OR(ISBLANK(A3),ISBLANK(B3)),"",F3=B3)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="D4" s="4" t="str">
-        <f t="shared" ref="D4:D12" si="0">IF(OR(ISBLANK(A4),ISBLANK(B4)),"",ABS(B4*COS(90-A4)))</f>
+        <f t="shared" ref="D4:D12" si="0">IF(OR(ISBLANK(A4),ISBLANK(B4)),"",(ABS(B4*COS(90-A4)))/1000)</f>
         <v/>
       </c>
       <c r="E4" s="4" t="str">
-        <f t="shared" ref="E4:E12" si="1">IF(OR(ISBLANK(A4),ISBLANK(B4)),"",ABS(B4*SIN(90-A4)))</f>
+        <f t="shared" ref="E4:E12" si="1">IF(OR(ISBLANK(A4),ISBLANK(B4)),"",(ABS(B4*SIN(90-A4)))/1000)</f>
         <v/>
       </c>
       <c r="F4" t="str">
@@ -680,11 +580,11 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="D6" s="4" t="str">
-        <f>IF(OR(ISBLANK(A6),ISBLANK(B6)),"",ABS(B6*COS(90-A6)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="E6" s="4" t="str">
-        <f>IF(OR(ISBLANK(A6),ISBLANK(B6)),"",ABS(B6*SIN(90-A6)))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F6" t="str">
